--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col5a1-Sdc3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col5a1-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Sdc3</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.4807657585278</v>
+        <v>2.53074</v>
       </c>
       <c r="H2">
-        <v>2.4807657585278</v>
+        <v>5.06148</v>
       </c>
       <c r="I2">
-        <v>0.02106623885411283</v>
+        <v>0.01977029857268583</v>
       </c>
       <c r="J2">
-        <v>0.02106623885411283</v>
+        <v>0.01429706700196158</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.5601779929463</v>
+        <v>30.0270995</v>
       </c>
       <c r="N2">
-        <v>29.5601779929463</v>
+        <v>60.054199</v>
       </c>
       <c r="O2">
-        <v>0.1350562120828969</v>
+        <v>0.1342326156631674</v>
       </c>
       <c r="P2">
-        <v>0.1350562120828969</v>
+        <v>0.09453939633554115</v>
       </c>
       <c r="Q2">
-        <v>73.33187738088822</v>
+        <v>75.99078178862999</v>
       </c>
       <c r="R2">
-        <v>73.33187738088822</v>
+        <v>303.96312715452</v>
       </c>
       <c r="S2">
-        <v>0.002845126422470026</v>
+        <v>0.002653818889853405</v>
       </c>
       <c r="T2">
-        <v>0.002845126422470026</v>
+        <v>0.001351636083734233</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.4807657585278</v>
+        <v>2.53074</v>
       </c>
       <c r="H3">
-        <v>2.4807657585278</v>
+        <v>5.06148</v>
       </c>
       <c r="I3">
-        <v>0.02106623885411283</v>
+        <v>0.01977029857268583</v>
       </c>
       <c r="J3">
-        <v>0.02106623885411283</v>
+        <v>0.01429706700196158</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.83407534301061</v>
+        <v>5.359535</v>
       </c>
       <c r="N3">
-        <v>4.83407534301061</v>
+        <v>16.078605</v>
       </c>
       <c r="O3">
-        <v>0.02208619666992983</v>
+        <v>0.02395917067475312</v>
       </c>
       <c r="P3">
-        <v>0.02208619666992983</v>
+        <v>0.02531149588087277</v>
       </c>
       <c r="Q3">
-        <v>11.99220858508425</v>
+        <v>13.5635896059</v>
       </c>
       <c r="R3">
-        <v>11.99220858508425</v>
+        <v>81.38153763539999</v>
       </c>
       <c r="S3">
-        <v>0.0004652730944276532</v>
+        <v>0.0004736799577938078</v>
       </c>
       <c r="T3">
-        <v>0.0004652730944276532</v>
+        <v>0.0003618801525287126</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.4807657585278</v>
+        <v>2.53074</v>
       </c>
       <c r="H4">
-        <v>2.4807657585278</v>
+        <v>5.06148</v>
       </c>
       <c r="I4">
-        <v>0.02106623885411283</v>
+        <v>0.01977029857268583</v>
       </c>
       <c r="J4">
-        <v>0.02106623885411283</v>
+        <v>0.01429706700196158</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5177728577442</v>
+        <v>63.82578633333333</v>
       </c>
       <c r="N4">
-        <v>61.5177728577442</v>
+        <v>191.477359</v>
       </c>
       <c r="O4">
-        <v>0.2810658778822488</v>
+        <v>0.2853256687773582</v>
       </c>
       <c r="P4">
-        <v>0.2810658778822488</v>
+        <v>0.3014302785352894</v>
       </c>
       <c r="Q4">
-        <v>152.6111844463827</v>
+        <v>161.52647050522</v>
       </c>
       <c r="R4">
-        <v>152.6111844463827</v>
+        <v>969.1588230313199</v>
       </c>
       <c r="S4">
-        <v>0.005921000917208361</v>
+        <v>0.005640973662179635</v>
       </c>
       <c r="T4">
-        <v>0.005921000917208361</v>
+        <v>0.004309568888638976</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.4807657585278</v>
+        <v>2.53074</v>
       </c>
       <c r="H5">
-        <v>2.4807657585278</v>
+        <v>5.06148</v>
       </c>
       <c r="I5">
-        <v>0.02106623885411283</v>
+        <v>0.01977029857268583</v>
       </c>
       <c r="J5">
-        <v>0.02106623885411283</v>
+        <v>0.01429706700196158</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>92.4534242232107</v>
+        <v>93.36864199999998</v>
       </c>
       <c r="N5">
-        <v>92.4534242232107</v>
+        <v>280.105926</v>
       </c>
       <c r="O5">
-        <v>0.4224064304572021</v>
+        <v>0.4173935293543045</v>
       </c>
       <c r="P5">
-        <v>0.4224064304572021</v>
+        <v>0.4409524328856299</v>
       </c>
       <c r="Q5">
-        <v>229.3552890715858</v>
+        <v>236.2917570550799</v>
       </c>
       <c r="R5">
-        <v>229.3552890715858</v>
+        <v>1417.75054233048</v>
       </c>
       <c r="S5">
-        <v>0.008898514757524621</v>
+        <v>0.008251994697641705</v>
       </c>
       <c r="T5">
-        <v>0.008898514757524621</v>
+        <v>0.006304326477643818</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.4807657585278</v>
+        <v>2.53074</v>
       </c>
       <c r="H6">
-        <v>2.4807657585278</v>
+        <v>5.06148</v>
       </c>
       <c r="I6">
-        <v>0.02106623885411283</v>
+        <v>0.01977029857268583</v>
       </c>
       <c r="J6">
-        <v>0.02106623885411283</v>
+        <v>0.01429706700196158</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.7245201266189</v>
+        <v>25.286359</v>
       </c>
       <c r="N6">
-        <v>24.7245201266189</v>
+        <v>75.859077</v>
       </c>
       <c r="O6">
-        <v>0.1129627850909863</v>
+        <v>0.1130396930002472</v>
       </c>
       <c r="P6">
-        <v>0.1129627850909863</v>
+        <v>0.1194199817093778</v>
       </c>
       <c r="Q6">
-        <v>61.33574292614759</v>
+        <v>63.99320017565999</v>
       </c>
       <c r="R6">
-        <v>61.33574292614759</v>
+        <v>383.95920105396</v>
       </c>
       <c r="S6">
-        <v>0.002379701012352534</v>
+        <v>0.002234828481179631</v>
       </c>
       <c r="T6">
-        <v>0.002379701012352534</v>
+        <v>0.001707355479872001</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.4807657585278</v>
+        <v>2.53074</v>
       </c>
       <c r="H7">
-        <v>2.4807657585278</v>
+        <v>5.06148</v>
       </c>
       <c r="I7">
-        <v>0.02106623885411283</v>
+        <v>0.01977029857268583</v>
       </c>
       <c r="J7">
-        <v>0.02106623885411283</v>
+        <v>0.01429706700196158</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.78317521597262</v>
+        <v>5.8270905</v>
       </c>
       <c r="N7">
-        <v>5.78317521597262</v>
+        <v>11.654181</v>
       </c>
       <c r="O7">
-        <v>0.02642249781673602</v>
+        <v>0.0260493225301696</v>
       </c>
       <c r="P7">
-        <v>0.02642249781673602</v>
+        <v>0.01834641465328899</v>
       </c>
       <c r="Q7">
-        <v>14.34670305135149</v>
+        <v>14.74685101197</v>
       </c>
       <c r="R7">
-        <v>14.34670305135149</v>
+        <v>58.98740404787999</v>
       </c>
       <c r="S7">
-        <v>0.0005566226501296357</v>
+        <v>0.0005150028840376447</v>
       </c>
       <c r="T7">
-        <v>0.0005566226501296357</v>
+        <v>0.0002622999195438426</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>89.9324102262031</v>
+        <v>95.43594366666667</v>
       </c>
       <c r="H8">
-        <v>89.9324102262031</v>
+        <v>286.307831</v>
       </c>
       <c r="I8">
-        <v>0.7636906580311553</v>
+        <v>0.7455515386234955</v>
       </c>
       <c r="J8">
-        <v>0.7636906580311553</v>
+        <v>0.8087283251130687</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.5601779929463</v>
+        <v>30.0270995</v>
       </c>
       <c r="N8">
-        <v>29.5601779929463</v>
+        <v>60.054199</v>
       </c>
       <c r="O8">
-        <v>0.1350562120828969</v>
+        <v>0.1342326156631674</v>
       </c>
       <c r="P8">
-        <v>0.1350562120828969</v>
+        <v>0.09453939633554115</v>
       </c>
       <c r="Q8">
-        <v>2658.418053621228</v>
+        <v>2865.664576355395</v>
       </c>
       <c r="R8">
-        <v>2658.418053621228</v>
+        <v>17193.98745813237</v>
       </c>
       <c r="S8">
-        <v>0.1031411674767828</v>
+        <v>0.1000773331411308</v>
       </c>
       <c r="T8">
-        <v>0.1031411674767828</v>
+        <v>0.07645668765564277</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>89.9324102262031</v>
+        <v>95.43594366666667</v>
       </c>
       <c r="H9">
-        <v>89.9324102262031</v>
+        <v>286.307831</v>
       </c>
       <c r="I9">
-        <v>0.7636906580311553</v>
+        <v>0.7455515386234955</v>
       </c>
       <c r="J9">
-        <v>0.7636906580311553</v>
+        <v>0.8087283251130687</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.83407534301061</v>
+        <v>5.359535</v>
       </c>
       <c r="N9">
-        <v>4.83407534301061</v>
+        <v>16.078605</v>
       </c>
       <c r="O9">
-        <v>0.02208619666992983</v>
+        <v>0.02395917067475312</v>
       </c>
       <c r="P9">
-        <v>0.02208619666992983</v>
+        <v>0.02531149588087277</v>
       </c>
       <c r="Q9">
-        <v>434.7400468120036</v>
+        <v>511.4922803395284</v>
       </c>
       <c r="R9">
-        <v>434.7400468120036</v>
+        <v>4603.430523055756</v>
       </c>
       <c r="S9">
-        <v>0.01686702206826423</v>
+        <v>0.01786279656070512</v>
       </c>
       <c r="T9">
-        <v>0.01686702206826423</v>
+        <v>0.02047012366984457</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>89.9324102262031</v>
+        <v>95.43594366666667</v>
       </c>
       <c r="H10">
-        <v>89.9324102262031</v>
+        <v>286.307831</v>
       </c>
       <c r="I10">
-        <v>0.7636906580311553</v>
+        <v>0.7455515386234955</v>
       </c>
       <c r="J10">
-        <v>0.7636906580311553</v>
+        <v>0.8087283251130687</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>61.5177728577442</v>
+        <v>63.82578633333333</v>
       </c>
       <c r="N10">
-        <v>61.5177728577442</v>
+        <v>191.477359</v>
       </c>
       <c r="O10">
-        <v>0.2810658778822488</v>
+        <v>0.2853256687773582</v>
       </c>
       <c r="P10">
-        <v>0.2810658778822488</v>
+        <v>0.3014302785352894</v>
       </c>
       <c r="Q10">
-        <v>5532.441584845034</v>
+        <v>6091.274148988704</v>
       </c>
       <c r="R10">
-        <v>5532.441584845034</v>
+        <v>54821.46734089834</v>
       </c>
       <c r="S10">
-        <v>0.2146473852299989</v>
+        <v>0.2127249913657373</v>
       </c>
       <c r="T10">
-        <v>0.2146473852299989</v>
+        <v>0.2437752042982104</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>89.9324102262031</v>
+        <v>95.43594366666667</v>
       </c>
       <c r="H11">
-        <v>89.9324102262031</v>
+        <v>286.307831</v>
       </c>
       <c r="I11">
-        <v>0.7636906580311553</v>
+        <v>0.7455515386234955</v>
       </c>
       <c r="J11">
-        <v>0.7636906580311553</v>
+        <v>0.8087283251130687</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>92.4534242232107</v>
+        <v>93.36864199999998</v>
       </c>
       <c r="N11">
-        <v>92.4534242232107</v>
+        <v>280.105926</v>
       </c>
       <c r="O11">
-        <v>0.4224064304572021</v>
+        <v>0.4173935293543045</v>
       </c>
       <c r="P11">
-        <v>0.4224064304572021</v>
+        <v>0.4409524328856299</v>
       </c>
       <c r="Q11">
-        <v>8314.559274058967</v>
+        <v>8910.724458145167</v>
       </c>
       <c r="R11">
-        <v>8314.559274058967</v>
+        <v>80196.5201233065</v>
       </c>
       <c r="S11">
-        <v>0.3225878448324521</v>
+        <v>0.3111883880215928</v>
       </c>
       <c r="T11">
-        <v>0.3225878448324521</v>
+        <v>0.3566107225021283</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>89.9324102262031</v>
+        <v>95.43594366666667</v>
       </c>
       <c r="H12">
-        <v>89.9324102262031</v>
+        <v>286.307831</v>
       </c>
       <c r="I12">
-        <v>0.7636906580311553</v>
+        <v>0.7455515386234955</v>
       </c>
       <c r="J12">
-        <v>0.7636906580311553</v>
+        <v>0.8087283251130687</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.7245201266189</v>
+        <v>25.286359</v>
       </c>
       <c r="N12">
-        <v>24.7245201266189</v>
+        <v>75.859077</v>
       </c>
       <c r="O12">
-        <v>0.1129627850909863</v>
+        <v>0.1130396930002472</v>
       </c>
       <c r="P12">
-        <v>0.1129627850909863</v>
+        <v>0.1194199817093778</v>
       </c>
       <c r="Q12">
-        <v>2223.535686673106</v>
+        <v>2413.22753305911</v>
       </c>
       <c r="R12">
-        <v>2223.535686673106</v>
+        <v>21719.04779753199</v>
       </c>
       <c r="S12">
-        <v>0.08626862367916732</v>
+        <v>0.08427691704186185</v>
       </c>
       <c r="T12">
-        <v>0.08626862367916732</v>
+        <v>0.09657832179285841</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>89.9324102262031</v>
+        <v>95.43594366666667</v>
       </c>
       <c r="H13">
-        <v>89.9324102262031</v>
+        <v>286.307831</v>
       </c>
       <c r="I13">
-        <v>0.7636906580311553</v>
+        <v>0.7455515386234955</v>
       </c>
       <c r="J13">
-        <v>0.7636906580311553</v>
+        <v>0.8087283251130687</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.78317521597262</v>
+        <v>5.8270905</v>
       </c>
       <c r="N13">
-        <v>5.78317521597262</v>
+        <v>11.654181</v>
       </c>
       <c r="O13">
-        <v>0.02642249781673602</v>
+        <v>0.0260493225301696</v>
       </c>
       <c r="P13">
-        <v>0.02642249781673602</v>
+        <v>0.01834641465328899</v>
       </c>
       <c r="Q13">
-        <v>520.0948859328604</v>
+        <v>556.1138806985686</v>
       </c>
       <c r="R13">
-        <v>520.0948859328604</v>
+        <v>3336.683284191411</v>
       </c>
       <c r="S13">
-        <v>0.02017861474448989</v>
+        <v>0.01942111249246763</v>
       </c>
       <c r="T13">
-        <v>0.02017861474448989</v>
+        <v>0.01483726519438427</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.113040086642349</v>
+        <v>0.08226566666666667</v>
       </c>
       <c r="H14">
-        <v>0.113040086642349</v>
+        <v>0.246797</v>
       </c>
       <c r="I14">
-        <v>0.0009599170970138363</v>
+        <v>0.0006426645140476889</v>
       </c>
       <c r="J14">
-        <v>0.0009599170970138363</v>
+        <v>0.0006971228266995253</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>29.5601779929463</v>
+        <v>30.0270995</v>
       </c>
       <c r="N14">
-        <v>29.5601779929463</v>
+        <v>60.054199</v>
       </c>
       <c r="O14">
-        <v>0.1350562120828969</v>
+        <v>0.1342326156631674</v>
       </c>
       <c r="P14">
-        <v>0.1350562120828969</v>
+        <v>0.09453939633554115</v>
       </c>
       <c r="Q14">
-        <v>3.341485081485908</v>
+        <v>2.470199358433833</v>
       </c>
       <c r="R14">
-        <v>3.341485081485908</v>
+        <v>14.821196150603</v>
       </c>
       <c r="S14">
-        <v>0.0001296427670362995</v>
+        <v>8.626653871451969E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001296427670362995</v>
+        <v>6.590557120789919E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.113040086642349</v>
+        <v>0.08226566666666667</v>
       </c>
       <c r="H15">
-        <v>0.113040086642349</v>
+        <v>0.246797</v>
       </c>
       <c r="I15">
-        <v>0.0009599170970138363</v>
+        <v>0.0006426645140476889</v>
       </c>
       <c r="J15">
-        <v>0.0009599170970138363</v>
+        <v>0.0006971228266995253</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.83407534301061</v>
+        <v>5.359535</v>
       </c>
       <c r="N15">
-        <v>4.83407534301061</v>
+        <v>16.078605</v>
       </c>
       <c r="O15">
-        <v>0.02208619666992983</v>
+        <v>0.02395917067475312</v>
       </c>
       <c r="P15">
-        <v>0.02208619666992983</v>
+        <v>0.02531149588087277</v>
       </c>
       <c r="Q15">
-        <v>0.5464442956095623</v>
+        <v>0.4409057197983334</v>
       </c>
       <c r="R15">
-        <v>0.5464442956095623</v>
+        <v>3.968151478185</v>
       </c>
       <c r="S15">
-        <v>2.12009177914757E-05</v>
+        <v>1.539770877867586E-05</v>
       </c>
       <c r="T15">
-        <v>2.12009177914757E-05</v>
+        <v>1.764522155646742E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.113040086642349</v>
+        <v>0.08226566666666667</v>
       </c>
       <c r="H16">
-        <v>0.113040086642349</v>
+        <v>0.246797</v>
       </c>
       <c r="I16">
-        <v>0.0009599170970138363</v>
+        <v>0.0006426645140476889</v>
       </c>
       <c r="J16">
-        <v>0.0009599170970138363</v>
+        <v>0.0006971228266995253</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.5177728577442</v>
+        <v>63.82578633333333</v>
       </c>
       <c r="N16">
-        <v>61.5177728577442</v>
+        <v>191.477359</v>
       </c>
       <c r="O16">
-        <v>0.2810658778822488</v>
+        <v>0.2853256687773582</v>
       </c>
       <c r="P16">
-        <v>0.2810658778822488</v>
+        <v>0.3014302785352894</v>
       </c>
       <c r="Q16">
-        <v>6.95397437388375</v>
+        <v>5.250670863235888</v>
       </c>
       <c r="R16">
-        <v>6.95397437388375</v>
+        <v>47.256037769123</v>
       </c>
       <c r="S16">
-        <v>0.0002697999415663737</v>
+        <v>0.0001833686822701327</v>
       </c>
       <c r="T16">
-        <v>0.0002697999415663737</v>
+        <v>0.0002101339278253462</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.113040086642349</v>
+        <v>0.08226566666666667</v>
       </c>
       <c r="H17">
-        <v>0.113040086642349</v>
+        <v>0.246797</v>
       </c>
       <c r="I17">
-        <v>0.0009599170970138363</v>
+        <v>0.0006426645140476889</v>
       </c>
       <c r="J17">
-        <v>0.0009599170970138363</v>
+        <v>0.0006971228266995253</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>92.4534242232107</v>
+        <v>93.36864199999998</v>
       </c>
       <c r="N17">
-        <v>92.4534242232107</v>
+        <v>280.105926</v>
       </c>
       <c r="O17">
-        <v>0.4224064304572021</v>
+        <v>0.4173935293543045</v>
       </c>
       <c r="P17">
-        <v>0.4224064304572021</v>
+        <v>0.4409524328856299</v>
       </c>
       <c r="Q17">
-        <v>10.45094308457359</v>
+        <v>7.681033579891332</v>
       </c>
       <c r="R17">
-        <v>10.45094308457359</v>
+        <v>69.12930221902198</v>
       </c>
       <c r="S17">
-        <v>0.0004054751544844544</v>
+        <v>0.0002682440097091338</v>
       </c>
       <c r="T17">
-        <v>0.0004054751544844544</v>
+        <v>0.000307398006453263</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.113040086642349</v>
+        <v>0.08226566666666667</v>
       </c>
       <c r="H18">
-        <v>0.113040086642349</v>
+        <v>0.246797</v>
       </c>
       <c r="I18">
-        <v>0.0009599170970138363</v>
+        <v>0.0006426645140476889</v>
       </c>
       <c r="J18">
-        <v>0.0009599170970138363</v>
+        <v>0.0006971228266995253</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.7245201266189</v>
+        <v>25.286359</v>
       </c>
       <c r="N18">
-        <v>24.7245201266189</v>
+        <v>75.859077</v>
       </c>
       <c r="O18">
-        <v>0.1129627850909863</v>
+        <v>0.1130396930002472</v>
       </c>
       <c r="P18">
-        <v>0.1129627850909863</v>
+        <v>0.1194199817093778</v>
       </c>
       <c r="Q18">
-        <v>2.794861897303502</v>
+        <v>2.080199180707667</v>
       </c>
       <c r="R18">
-        <v>2.794861897303502</v>
+        <v>18.721792626369</v>
       </c>
       <c r="S18">
-        <v>0.0001084349087351375</v>
+        <v>7.26465993701038E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001084349087351375</v>
+        <v>8.325039521364706E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.113040086642349</v>
+        <v>0.08226566666666667</v>
       </c>
       <c r="H19">
-        <v>0.113040086642349</v>
+        <v>0.246797</v>
       </c>
       <c r="I19">
-        <v>0.0009599170970138363</v>
+        <v>0.0006426645140476889</v>
       </c>
       <c r="J19">
-        <v>0.0009599170970138363</v>
+        <v>0.0006971228266995253</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.78317521597262</v>
+        <v>5.8270905</v>
       </c>
       <c r="N19">
-        <v>5.78317521597262</v>
+        <v>11.654181</v>
       </c>
       <c r="O19">
-        <v>0.02642249781673602</v>
+        <v>0.0260493225301696</v>
       </c>
       <c r="P19">
-        <v>0.02642249781673602</v>
+        <v>0.01834641465328899</v>
       </c>
       <c r="Q19">
-        <v>0.6537306274814304</v>
+        <v>0.4793694847095</v>
       </c>
       <c r="R19">
-        <v>0.6537306274814304</v>
+        <v>2.876216908257</v>
       </c>
       <c r="S19">
-        <v>2.536340740009566E-05</v>
+        <v>1.674097520512296E-05</v>
       </c>
       <c r="T19">
-        <v>2.536340740009566E-05</v>
+        <v>1.278970444290242E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.09579004938281</v>
+        <v>0.128656</v>
       </c>
       <c r="H20">
-        <v>2.09579004938281</v>
+        <v>0.385968</v>
       </c>
       <c r="I20">
-        <v>0.01779709092509084</v>
+        <v>0.001005068688671087</v>
       </c>
       <c r="J20">
-        <v>0.01779709092509084</v>
+        <v>0.001090236523035379</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>29.5601779929463</v>
+        <v>30.0270995</v>
       </c>
       <c r="N20">
-        <v>29.5601779929463</v>
+        <v>60.054199</v>
       </c>
       <c r="O20">
-        <v>0.1350562120828969</v>
+        <v>0.1342326156631674</v>
       </c>
       <c r="P20">
-        <v>0.1350562120828969</v>
+        <v>0.09453939633554115</v>
       </c>
       <c r="Q20">
-        <v>61.95192689560158</v>
+        <v>3.863166513272</v>
       </c>
       <c r="R20">
-        <v>61.95192689560158</v>
+        <v>23.178999079632</v>
       </c>
       <c r="S20">
-        <v>0.002403607686437669</v>
+        <v>0.0001349129990014698</v>
       </c>
       <c r="T20">
-        <v>0.002403607686437669</v>
+        <v>0.000103070302750724</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.09579004938281</v>
+        <v>0.128656</v>
       </c>
       <c r="H21">
-        <v>2.09579004938281</v>
+        <v>0.385968</v>
       </c>
       <c r="I21">
-        <v>0.01779709092509084</v>
+        <v>0.001005068688671087</v>
       </c>
       <c r="J21">
-        <v>0.01779709092509084</v>
+        <v>0.001090236523035379</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.83407534301061</v>
+        <v>5.359535</v>
       </c>
       <c r="N21">
-        <v>4.83407534301061</v>
+        <v>16.078605</v>
       </c>
       <c r="O21">
-        <v>0.02208619666992983</v>
+        <v>0.02395917067475312</v>
       </c>
       <c r="P21">
-        <v>0.02208619666992983</v>
+        <v>0.02531149588087277</v>
       </c>
       <c r="Q21">
-        <v>10.13120700184843</v>
+        <v>0.68953633496</v>
       </c>
       <c r="R21">
-        <v>10.13120700184843</v>
+        <v>6.20582701464</v>
       </c>
       <c r="S21">
-        <v>0.0003930700503241797</v>
+        <v>2.408061225172089E-05</v>
       </c>
       <c r="T21">
-        <v>0.0003930700503241797</v>
+        <v>2.759551726198704E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.09579004938281</v>
+        <v>0.128656</v>
       </c>
       <c r="H22">
-        <v>2.09579004938281</v>
+        <v>0.385968</v>
       </c>
       <c r="I22">
-        <v>0.01779709092509084</v>
+        <v>0.001005068688671087</v>
       </c>
       <c r="J22">
-        <v>0.01779709092509084</v>
+        <v>0.001090236523035379</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>61.5177728577442</v>
+        <v>63.82578633333333</v>
       </c>
       <c r="N22">
-        <v>61.5177728577442</v>
+        <v>191.477359</v>
       </c>
       <c r="O22">
-        <v>0.2810658778822488</v>
+        <v>0.2853256687773582</v>
       </c>
       <c r="P22">
-        <v>0.2810658778822488</v>
+        <v>0.3014302785352894</v>
       </c>
       <c r="Q22">
-        <v>128.9283362154522</v>
+        <v>8.211570366501332</v>
       </c>
       <c r="R22">
-        <v>128.9283362154522</v>
+        <v>73.90413329851199</v>
       </c>
       <c r="S22">
-        <v>0.00500215498461086</v>
+        <v>0.0002867718957622604</v>
       </c>
       <c r="T22">
-        <v>0.00500215498461086</v>
+        <v>0.0003286302988078997</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.09579004938281</v>
+        <v>0.128656</v>
       </c>
       <c r="H23">
-        <v>2.09579004938281</v>
+        <v>0.385968</v>
       </c>
       <c r="I23">
-        <v>0.01779709092509084</v>
+        <v>0.001005068688671087</v>
       </c>
       <c r="J23">
-        <v>0.01779709092509084</v>
+        <v>0.001090236523035379</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>92.4534242232107</v>
+        <v>93.36864199999998</v>
       </c>
       <c r="N23">
-        <v>92.4534242232107</v>
+        <v>280.105926</v>
       </c>
       <c r="O23">
-        <v>0.4224064304572021</v>
+        <v>0.4173935293543045</v>
       </c>
       <c r="P23">
-        <v>0.4224064304572021</v>
+        <v>0.4409524328856299</v>
       </c>
       <c r="Q23">
-        <v>193.7629665183726</v>
+        <v>12.012436005152</v>
       </c>
       <c r="R23">
-        <v>193.7629665183726</v>
+        <v>108.111924046368</v>
       </c>
       <c r="S23">
-        <v>0.007517605650189886</v>
+        <v>0.0004195091672079278</v>
       </c>
       <c r="T23">
-        <v>0.007517605650189886</v>
+        <v>0.0004807424472532203</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.09579004938281</v>
+        <v>0.128656</v>
       </c>
       <c r="H24">
-        <v>2.09579004938281</v>
+        <v>0.385968</v>
       </c>
       <c r="I24">
-        <v>0.01779709092509084</v>
+        <v>0.001005068688671087</v>
       </c>
       <c r="J24">
-        <v>0.01779709092509084</v>
+        <v>0.001090236523035379</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.7245201266189</v>
+        <v>25.286359</v>
       </c>
       <c r="N24">
-        <v>24.7245201266189</v>
+        <v>75.859077</v>
       </c>
       <c r="O24">
-        <v>0.1129627850909863</v>
+        <v>0.1130396930002472</v>
       </c>
       <c r="P24">
-        <v>0.1129627850909863</v>
+        <v>0.1194199817093778</v>
       </c>
       <c r="Q24">
-        <v>51.8174032571329</v>
+        <v>3.253241803504</v>
       </c>
       <c r="R24">
-        <v>51.8174032571329</v>
+        <v>29.279176231536</v>
       </c>
       <c r="S24">
-        <v>0.002010408957415779</v>
+        <v>0.0001136126560115407</v>
       </c>
       <c r="T24">
-        <v>0.002010408957415779</v>
+        <v>0.0001301960256397806</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.09579004938281</v>
+        <v>0.128656</v>
       </c>
       <c r="H25">
-        <v>2.09579004938281</v>
+        <v>0.385968</v>
       </c>
       <c r="I25">
-        <v>0.01779709092509084</v>
+        <v>0.001005068688671087</v>
       </c>
       <c r="J25">
-        <v>0.01779709092509084</v>
+        <v>0.001090236523035379</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.78317521597262</v>
+        <v>5.8270905</v>
       </c>
       <c r="N25">
-        <v>5.78317521597262</v>
+        <v>11.654181</v>
       </c>
       <c r="O25">
-        <v>0.02642249781673602</v>
+        <v>0.0260493225301696</v>
       </c>
       <c r="P25">
-        <v>0.02642249781673602</v>
+        <v>0.01834641465328899</v>
       </c>
       <c r="Q25">
-        <v>12.1203210714727</v>
+        <v>0.7496901553679999</v>
       </c>
       <c r="R25">
-        <v>12.1203210714727</v>
+        <v>4.498140932208</v>
       </c>
       <c r="S25">
-        <v>0.000470243596112465</v>
+        <v>2.618135843616777E-05</v>
       </c>
       <c r="T25">
-        <v>0.000470243596112465</v>
+        <v>2.000193132176712E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>23.1382535870879</v>
+        <v>2.361053666666667</v>
       </c>
       <c r="H26">
-        <v>23.1382535870879</v>
+        <v>7.083161</v>
       </c>
       <c r="I26">
-        <v>0.1964860950926272</v>
+        <v>0.01844469836337776</v>
       </c>
       <c r="J26">
-        <v>0.1964860950926272</v>
+        <v>0.02000767115600205</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>29.5601779929463</v>
+        <v>30.0270995</v>
       </c>
       <c r="N26">
-        <v>29.5601779929463</v>
+        <v>60.054199</v>
       </c>
       <c r="O26">
-        <v>0.1350562120828969</v>
+        <v>0.1342326156631674</v>
       </c>
       <c r="P26">
-        <v>0.1350562120828969</v>
+        <v>0.09453939633554115</v>
       </c>
       <c r="Q26">
-        <v>683.9708944802466</v>
+        <v>70.89559337383983</v>
       </c>
       <c r="R26">
-        <v>683.9708944802466</v>
+        <v>425.373560243039</v>
       </c>
       <c r="S26">
-        <v>0.02653666773017011</v>
+        <v>0.002475880106434341</v>
       </c>
       <c r="T26">
-        <v>0.02653666773017011</v>
+        <v>0.001891513153168452</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>23.1382535870879</v>
+        <v>2.361053666666667</v>
       </c>
       <c r="H27">
-        <v>23.1382535870879</v>
+        <v>7.083161</v>
       </c>
       <c r="I27">
-        <v>0.1964860950926272</v>
+        <v>0.01844469836337776</v>
       </c>
       <c r="J27">
-        <v>0.1964860950926272</v>
+        <v>0.02000767115600205</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>4.83407534301061</v>
+        <v>5.359535</v>
       </c>
       <c r="N27">
-        <v>4.83407534301061</v>
+        <v>16.078605</v>
       </c>
       <c r="O27">
-        <v>0.02208619666992983</v>
+        <v>0.02395917067475312</v>
       </c>
       <c r="P27">
-        <v>0.02208619666992983</v>
+        <v>0.02531149588087277</v>
       </c>
       <c r="Q27">
-        <v>111.8520611456684</v>
+        <v>12.65414976337834</v>
       </c>
       <c r="R27">
-        <v>111.8520611456684</v>
+        <v>113.887347870405</v>
       </c>
       <c r="S27">
-        <v>0.004339630539122299</v>
+        <v>0.0004419196761325074</v>
       </c>
       <c r="T27">
-        <v>0.004339630539122299</v>
+        <v>0.0005064240860510027</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>23.1382535870879</v>
+        <v>2.361053666666667</v>
       </c>
       <c r="H28">
-        <v>23.1382535870879</v>
+        <v>7.083161</v>
       </c>
       <c r="I28">
-        <v>0.1964860950926272</v>
+        <v>0.01844469836337776</v>
       </c>
       <c r="J28">
-        <v>0.1964860950926272</v>
+        <v>0.02000767115600205</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>61.5177728577442</v>
+        <v>63.82578633333333</v>
       </c>
       <c r="N28">
-        <v>61.5177728577442</v>
+        <v>191.477359</v>
       </c>
       <c r="O28">
-        <v>0.2810658778822488</v>
+        <v>0.2853256687773582</v>
       </c>
       <c r="P28">
-        <v>0.2810658778822488</v>
+        <v>0.3014302785352894</v>
       </c>
       <c r="Q28">
-        <v>1423.413828495358</v>
+        <v>150.6961068501999</v>
       </c>
       <c r="R28">
-        <v>1423.413828495358</v>
+        <v>1356.264961651799</v>
       </c>
       <c r="S28">
-        <v>0.05522553680886427</v>
+        <v>0.005262745895927405</v>
       </c>
       <c r="T28">
-        <v>0.05522553680886427</v>
+        <v>0.006030917889396172</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>23.1382535870879</v>
+        <v>2.361053666666667</v>
       </c>
       <c r="H29">
-        <v>23.1382535870879</v>
+        <v>7.083161</v>
       </c>
       <c r="I29">
-        <v>0.1964860950926272</v>
+        <v>0.01844469836337776</v>
       </c>
       <c r="J29">
-        <v>0.1964860950926272</v>
+        <v>0.02000767115600205</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>92.4534242232107</v>
+        <v>93.36864199999998</v>
       </c>
       <c r="N29">
-        <v>92.4534242232107</v>
+        <v>280.105926</v>
       </c>
       <c r="O29">
-        <v>0.4224064304572021</v>
+        <v>0.4173935293543045</v>
       </c>
       <c r="P29">
-        <v>0.4224064304572021</v>
+        <v>0.4409524328856299</v>
       </c>
       <c r="Q29">
-        <v>2139.210774671265</v>
+        <v>220.4483745457873</v>
       </c>
       <c r="R29">
-        <v>2139.210774671265</v>
+        <v>1984.035370912086</v>
       </c>
       <c r="S29">
-        <v>0.08299699006255101</v>
+        <v>0.007698697747765808</v>
       </c>
       <c r="T29">
-        <v>0.08299699006255101</v>
+        <v>0.008822431272614744</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>23.1382535870879</v>
+        <v>2.361053666666667</v>
       </c>
       <c r="H30">
-        <v>23.1382535870879</v>
+        <v>7.083161</v>
       </c>
       <c r="I30">
-        <v>0.1964860950926272</v>
+        <v>0.01844469836337776</v>
       </c>
       <c r="J30">
-        <v>0.1964860950926272</v>
+        <v>0.02000767115600205</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>24.7245201266189</v>
+        <v>25.286359</v>
       </c>
       <c r="N30">
-        <v>24.7245201266189</v>
+        <v>75.859077</v>
       </c>
       <c r="O30">
-        <v>0.1129627850909863</v>
+        <v>0.1130396930002472</v>
       </c>
       <c r="P30">
-        <v>0.1129627850909863</v>
+        <v>0.1194199817093778</v>
       </c>
       <c r="Q30">
-        <v>572.0822165087667</v>
+        <v>59.70245063359967</v>
       </c>
       <c r="R30">
-        <v>572.0822165087667</v>
+        <v>537.3220557023971</v>
       </c>
       <c r="S30">
-        <v>0.02219561653331555</v>
+        <v>0.002084983040478384</v>
       </c>
       <c r="T30">
-        <v>0.02219561653331555</v>
+        <v>0.00238931572349701</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.361053666666667</v>
+      </c>
+      <c r="H31">
+        <v>7.083161</v>
+      </c>
+      <c r="I31">
+        <v>0.01844469836337776</v>
+      </c>
+      <c r="J31">
+        <v>0.02000767115600205</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5.8270905</v>
+      </c>
+      <c r="N31">
+        <v>11.654181</v>
+      </c>
+      <c r="O31">
+        <v>0.0260493225301696</v>
+      </c>
+      <c r="P31">
+        <v>0.01834641465328899</v>
+      </c>
+      <c r="Q31">
+        <v>13.7580733910235</v>
+      </c>
+      <c r="R31">
+        <v>82.54844034614101</v>
+      </c>
+      <c r="S31">
+        <v>0.0004804718966393187</v>
+      </c>
+      <c r="T31">
+        <v>0.0003670690312746635</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>27.4685125</v>
+      </c>
+      <c r="H32">
+        <v>54.937025</v>
+      </c>
+      <c r="I32">
+        <v>0.2145857312377221</v>
+      </c>
+      <c r="J32">
+        <v>0.1551795773792327</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>30.0270995</v>
+      </c>
+      <c r="N32">
+        <v>60.054199</v>
+      </c>
+      <c r="O32">
+        <v>0.1342326156631674</v>
+      </c>
+      <c r="P32">
+        <v>0.09453939633554115</v>
+      </c>
+      <c r="Q32">
+        <v>824.7997579544937</v>
+      </c>
+      <c r="R32">
+        <v>3299.199031817975</v>
+      </c>
+      <c r="S32">
+        <v>0.02880440398803289</v>
+      </c>
+      <c r="T32">
+        <v>0.01467058356903705</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>27.4685125</v>
+      </c>
+      <c r="H33">
+        <v>54.937025</v>
+      </c>
+      <c r="I33">
+        <v>0.2145857312377221</v>
+      </c>
+      <c r="J33">
+        <v>0.1551795773792327</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>5.359535</v>
+      </c>
+      <c r="N33">
+        <v>16.078605</v>
+      </c>
+      <c r="O33">
+        <v>0.02395917067475312</v>
+      </c>
+      <c r="P33">
+        <v>0.02531149588087277</v>
+      </c>
+      <c r="Q33">
+        <v>147.2184541416875</v>
+      </c>
+      <c r="R33">
+        <v>883.310724850125</v>
+      </c>
+      <c r="S33">
+        <v>0.005141296159091286</v>
+      </c>
+      <c r="T33">
+        <v>0.003927827233630025</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>27.4685125</v>
+      </c>
+      <c r="H34">
+        <v>54.937025</v>
+      </c>
+      <c r="I34">
+        <v>0.2145857312377221</v>
+      </c>
+      <c r="J34">
+        <v>0.1551795773792327</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>63.82578633333333</v>
+      </c>
+      <c r="N34">
+        <v>191.477359</v>
+      </c>
+      <c r="O34">
+        <v>0.2853256687773582</v>
+      </c>
+      <c r="P34">
+        <v>0.3014302785352894</v>
+      </c>
+      <c r="Q34">
+        <v>1753.199409719496</v>
+      </c>
+      <c r="R34">
+        <v>10519.19645831698</v>
+      </c>
+      <c r="S34">
+        <v>0.0612268172754815</v>
+      </c>
+      <c r="T34">
+        <v>0.04677582323241061</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>27.4685125</v>
+      </c>
+      <c r="H35">
+        <v>54.937025</v>
+      </c>
+      <c r="I35">
+        <v>0.2145857312377221</v>
+      </c>
+      <c r="J35">
+        <v>0.1551795773792327</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>93.36864199999998</v>
+      </c>
+      <c r="N35">
+        <v>280.105926</v>
+      </c>
+      <c r="O35">
+        <v>0.4173935293543045</v>
+      </c>
+      <c r="P35">
+        <v>0.4409524328856299</v>
+      </c>
+      <c r="Q35">
+        <v>2564.697709885024</v>
+      </c>
+      <c r="R35">
+        <v>15388.18625931015</v>
+      </c>
+      <c r="S35">
+        <v>0.08956669571038704</v>
+      </c>
+      <c r="T35">
+        <v>0.0684268121795365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>23.1382535870879</v>
-      </c>
-      <c r="H31">
-        <v>23.1382535870879</v>
-      </c>
-      <c r="I31">
-        <v>0.1964860950926272</v>
-      </c>
-      <c r="J31">
-        <v>0.1964860950926272</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>5.78317521597262</v>
-      </c>
-      <c r="N31">
-        <v>5.78317521597262</v>
-      </c>
-      <c r="O31">
-        <v>0.02642249781673602</v>
-      </c>
-      <c r="P31">
-        <v>0.02642249781673602</v>
-      </c>
-      <c r="Q31">
-        <v>133.8125746857363</v>
-      </c>
-      <c r="R31">
-        <v>133.8125746857363</v>
-      </c>
-      <c r="S31">
-        <v>0.005191653418603926</v>
-      </c>
-      <c r="T31">
-        <v>0.005191653418603926</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>27.4685125</v>
+      </c>
+      <c r="H36">
+        <v>54.937025</v>
+      </c>
+      <c r="I36">
+        <v>0.2145857312377221</v>
+      </c>
+      <c r="J36">
+        <v>0.1551795773792327</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>25.286359</v>
+      </c>
+      <c r="N36">
+        <v>75.859077</v>
+      </c>
+      <c r="O36">
+        <v>0.1130396930002472</v>
+      </c>
+      <c r="P36">
+        <v>0.1194199817093778</v>
+      </c>
+      <c r="Q36">
+        <v>694.5786682709875</v>
+      </c>
+      <c r="R36">
+        <v>4167.472009625925</v>
+      </c>
+      <c r="S36">
+        <v>0.02425670518134566</v>
+      </c>
+      <c r="T36">
+        <v>0.01853154229229695</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>27.4685125</v>
+      </c>
+      <c r="H37">
+        <v>54.937025</v>
+      </c>
+      <c r="I37">
+        <v>0.2145857312377221</v>
+      </c>
+      <c r="J37">
+        <v>0.1551795773792327</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>5.8270905</v>
+      </c>
+      <c r="N37">
+        <v>11.654181</v>
+      </c>
+      <c r="O37">
+        <v>0.0260493225301696</v>
+      </c>
+      <c r="P37">
+        <v>0.01834641465328899</v>
+      </c>
+      <c r="Q37">
+        <v>160.0615082378812</v>
+      </c>
+      <c r="R37">
+        <v>640.246032951525</v>
+      </c>
+      <c r="S37">
+        <v>0.005589812923383712</v>
+      </c>
+      <c r="T37">
+        <v>0.002846988872321548</v>
       </c>
     </row>
   </sheetData>
